--- a/biology/Zoologie/Fluvalinate/Fluvalinate.xlsx
+++ b/biology/Zoologie/Fluvalinate/Fluvalinate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fluvalinate  est un mélange de nombreux stéréoisomères d'un composé organique appartenant à la famille des pyréthrinoïdes. Le Tau-fluvalinate est un nom trivial pour le (2RS-D)-fluvalinate.
@@ -513,9 +525,11 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fluvalinate peut être obtenu à partir de la  4-trifluorméthylaniline ou bien de la 2-chlor-4-trifluorméthylaniline[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fluvalinate peut être obtenu à partir de la  4-trifluorméthylaniline ou bien de la 2-chlor-4-trifluorméthylaniline.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet insecticide agit sur le système nerveux des insectes, par contact ou ingestion du produit, en perturbant la conduction de l’influx nerveux.
 </t>
@@ -575,11 +591,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fluvalinate agit sur un grand nombre d'insectes notamment piqueurs-suceurs (pucerons, cicadelles, punaises, thrips) ou les lépidoptères (tordeuses ou noctuelles) présents sur un grand nombre de cultures.
-Il est couramment utilisé en apiculture pour contrôler le varroa dans les colonies d'abeilles[8]. Le fluvalinate est stable, non-volatile, lipo-soluble. Son efficacité a été démontré en France et en Israël. Une étude a montré que le miel d'une ruche traitée ne contient pratiquement pas de fluvalinate, compte tenu de son affinité pour la cire d'abeille.
-Cependant compte-tenu des phénomènes de résistance observés dès 1995, cet acaricide est considéré comme très peu efficace[9].
+Il est couramment utilisé en apiculture pour contrôler le varroa dans les colonies d'abeilles. Le fluvalinate est stable, non-volatile, lipo-soluble. Son efficacité a été démontré en France et en Israël. Une étude a montré que le miel d'une ruche traitée ne contient pratiquement pas de fluvalinate, compte tenu de son affinité pour la cire d'abeille.
+Cependant compte-tenu des phénomènes de résistance observés dès 1995, cet acaricide est considéré comme très peu efficace.
 </t>
         </is>
       </c>
